--- a/Documentation/MQTTTopicsList.xlsx
+++ b/Documentation/MQTTTopicsList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dumavla\GitHub\IoT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dumavla\GitHub\IoT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A117F0-2CC6-4A6A-A8F8-D84BE05746CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6ECB16-598D-4FED-8D94-8345862C3F3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA75AB57-4483-4C46-A80D-192EBB64E54E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Topic Name</t>
   </si>
@@ -78,18 +78,12 @@
     <t>LIGHT</t>
   </si>
   <si>
-    <t>REGISTRATION_REQUESTS</t>
-  </si>
-  <si>
     <t>REGISTRATION AND AUTHORIZATION SERVICE</t>
   </si>
   <si>
     <t>AUTHORIZATION_REQUESTS</t>
   </si>
   <si>
-    <t>REGISTRATION_REQUESTS_DECISION</t>
-  </si>
-  <si>
     <t>CONFIGURATION SERVICE</t>
   </si>
   <si>
@@ -112,6 +106,9 @@
   </si>
   <si>
     <t>Subtopics for each device. Device ID - MAC Address. Used to spread new settings from configuration service to devices. Initiated by configuration service after receiving UPDATE_DEVICE_SETTINGS and storing them to the database</t>
+  </si>
+  <si>
+    <t>AUTHORIZATION_REQUESTS_STATUS</t>
   </si>
 </sst>
 </file>
@@ -169,9 +166,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -180,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,224 +492,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E3773-9BA8-4044-B220-08B92BEC70A0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="87" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="str">
+        <f>B3&amp;"_TPC"</f>
+        <v>GREETING_TPC</v>
+      </c>
+      <c r="D3" t="str">
         <f>"/HOME_AUTOMATION/"&amp;B3</f>
         <v>/HOME_AUTOMATION/GREETING</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E3" t="str">
+        <f>"#define "&amp;C3&amp;" """&amp;D3&amp;""""</f>
+        <v>#define GREETING_TPC "/HOME_AUTOMATION/GREETING"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="str">
+        <f>B5&amp;"_TPC"</f>
+        <v>AUTHORIZATION_REQUESTS_TPC</v>
+      </c>
+      <c r="D5" t="str">
         <f>"/HOME_AUTOMATION/"&amp;B5</f>
         <v>/HOME_AUTOMATION/AUTHORIZATION_REQUESTS</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f>"#define "&amp;C5&amp;" """&amp;D5&amp;""""</f>
+        <v>#define AUTHORIZATION_REQUESTS_TPC "/HOME_AUTOMATION/AUTHORIZATION_REQUESTS"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C6" t="str">
+        <f t="shared" ref="C6" si="0">B6&amp;"_TPC"</f>
+        <v>AUTHORIZATION_REQUESTS_STATUS_TPC</v>
+      </c>
+      <c r="D6" t="str">
         <f>"/HOME_AUTOMATION/"&amp;B6</f>
-        <v>/HOME_AUTOMATION/REGISTRATION_REQUESTS</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+        <v>/HOME_AUTOMATION/AUTHORIZATION_REQUESTS_STATUS</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"#define "&amp;C6&amp;" """&amp;D6&amp;""""</f>
+        <v>#define AUTHORIZATION_REQUESTS_STATUS_TPC "/HOME_AUTOMATION/AUTHORIZATION_REQUESTS_STATUS"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="str">
-        <f>"/HOME_AUTOMATION/"&amp;B7</f>
-        <v>/HOME_AUTOMATION/REGISTRATION_REQUESTS_DECISION</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C8" t="str">
+        <f>B8&amp;"_TPC"</f>
+        <v>GET_DEVICE_SETTINGS_TPC</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"/HOME_AUTOMATION/"&amp;B8</f>
+        <v>/HOME_AUTOMATION/GET_DEVICE_SETTINGS</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"#define "&amp;C8&amp;" """&amp;D8&amp;""""</f>
+        <v>#define GET_DEVICE_SETTINGS_TPC "/HOME_AUTOMATION/GET_DEVICE_SETTINGS"</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" ref="C9:C10" si="1">B9&amp;"_TPC"</f>
+        <v>UPDATE_DEVICE_SETTINGS_TPC</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"/HOME_AUTOMATION/"&amp;B9</f>
+        <v>/HOME_AUTOMATION/UPDATE_DEVICE_SETTINGS</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"#define "&amp;C9&amp;" """&amp;D9&amp;""""</f>
+        <v>#define UPDATE_DEVICE_SETTINGS_TPC "/HOME_AUTOMATION/UPDATE_DEVICE_SETTINGS"</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>APPLY_DEVICE_SETTINGS_TPC</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"/HOME_AUTOMATION/"&amp;B10</f>
+        <v>/HOME_AUTOMATION/APPLY_DEVICE_SETTINGS</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"#define "&amp;C10&amp;" """&amp;D10&amp;""""</f>
+        <v>#define APPLY_DEVICE_SETTINGS_TPC "/HOME_AUTOMATION/APPLY_DEVICE_SETTINGS"</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"/HOME_AUTOMATION/"&amp;B12</f>
+        <v>/HOME_AUTOMATION/HALL</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ref="D13:D16" si="2">"/HOME_AUTOMATION/"&amp;B13</f>
+        <v>/HOME_AUTOMATION/BEDROOM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>/HOME_AUTOMATION/KIDSROOM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>/HOME_AUTOMATION/GUESTROOM</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>/HOME_AUTOMATION/KITCHEN</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="str">
-        <f>"/HOME_AUTOMATION/"&amp;B9</f>
-        <v>/HOME_AUTOMATION/GET_DEVICE_SETTINGS</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="str">
-        <f>"/HOME_AUTOMATION/"&amp;B10</f>
-        <v>/HOME_AUTOMATION/UPDATE_DEVICE_SETTINGS</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"/HOME_AUTOMATION/"&amp;B11</f>
-        <v>/HOME_AUTOMATION/APPLY_DEVICE_SETTINGS</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="str">
-        <f>"/HOME_AUTOMATION/"&amp;B13</f>
-        <v>/HOME_AUTOMATION/HALL</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ref="C14:C17" si="0">"/HOME_AUTOMATION/"&amp;B14</f>
-        <v>/HOME_AUTOMATION/BEDROOM</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>/HOME_AUTOMATION/KIDSROOM</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>/HOME_AUTOMATION/GUESTROOM</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>/HOME_AUTOMATION/KITCHEN</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B18&amp;"_TPC"</f>
+        <v>MOTION_TPC</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"%BASE_TOPIC_NAME%/"&amp;B18</f>
+        <v>%BASE_TOPIC_NAME%/MOTION</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"#define "&amp;C18&amp;" """&amp;D18&amp;""""</f>
+        <v>#define MOTION_TPC "%BASE_TOPIC_NAME%/MOTION"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="str">
-        <f>"%BASE_TOPIC_NAME%/"&amp;B19</f>
-        <v>%BASE_TOPIC_NAME%/MOTION</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C19:C20" si="3">B19&amp;"_TPC"</f>
+        <v>TEMPERATURE_TPC</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D20" si="4">"%BASE_TOPIC_NAME%/"&amp;B19</f>
+        <v>%BASE_TOPIC_NAME%/TEMPERATURE</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"#define "&amp;C19&amp;" """&amp;D19&amp;""""</f>
+        <v>#define TEMPERATURE_TPC "%BASE_TOPIC_NAME%/TEMPERATURE"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ref="C20:C21" si="1">"%BASE_TOPIC_NAME%/"&amp;B20</f>
-        <v>%BASE_TOPIC_NAME%/TEMPERATURE</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>LIGHT_TPC</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
         <v>%BASE_TOPIC_NAME%/LIGHT</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"#define "&amp;C20&amp;" """&amp;D20&amp;""""</f>
+        <v>#define LIGHT_TPC "%BASE_TOPIC_NAME%/LIGHT"</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
